--- a/data/huanchaquito.xlsx
+++ b/data/huanchaquito.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,25 +462,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -502,21 +507,24 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -536,21 +544,24 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -570,21 +581,24 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -604,21 +618,24 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>14</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -638,21 +655,24 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -672,21 +692,24 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -706,21 +729,24 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>10</v>
-      </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
       </c>
       <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -743,18 +769,21 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>10</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -774,23 +803,26 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>6</v>
       </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -808,23 +840,26 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>8</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -842,21 +877,24 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,21 +914,24 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -910,21 +951,24 @@
         <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>12</v>
       </c>
     </row>
@@ -944,21 +988,24 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
       <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -981,18 +1028,21 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="n">
-        <v>10</v>
-      </c>
       <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
         <v>5</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1012,21 +1062,24 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
       </c>
       <c r="H17" t="n">
         <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1037,7 +1090,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>13</v>
@@ -1046,21 +1099,24 @@
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
       </c>
       <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1080,21 +1136,24 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>5</v>
       </c>
-      <c r="G19" t="n">
-        <v>10</v>
-      </c>
       <c r="H19" t="n">
         <v>10</v>
       </c>
       <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
         <v>7</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1117,18 +1176,21 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>8</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1148,21 +1210,24 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>8</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1177,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,25 +1278,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -1258,20 +1328,25 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1290,24 +1365,29 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -1334,20 +1414,25 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1368,26 +1453,27 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1414,28 +1500,33 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1458,24 +1549,29 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1502,28 +1598,33 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -1549,21 +1650,26 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1586,28 +1692,33 @@
           <t>8</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1634,28 +1745,33 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1682,28 +1798,33 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1726,28 +1847,33 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1766,20 +1892,29 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1806,28 +1941,33 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1843,23 +1983,24 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1882,24 +2023,29 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -1913,7 +2059,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1926,28 +2072,33 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1970,17 +2121,17 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>10</t>
@@ -1988,10 +2139,15 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -2021,21 +2177,26 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2062,28 +2223,33 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
